--- a/Excel/ActionGroupConfig@c.xlsx
+++ b/Excel/ActionGroupConfig@c.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -165,6 +165,36 @@
   </si>
   <si>
     <t xml:space="preserve">枪-技能2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "_t" : "System.Collections.Generic.List`1[[ET.ActionConfig, Unity.Model]]", "_v" : [{ "ActionType" : "Animator", "StartTime" : 0.0, "Duration" : 1.1299999952316284, "Priority" : 10, "Args" : ["true", "Attack_01"] }] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "_t" : "System.Collections.Generic.List`1[[ET.ActionConfig, Unity.Model]]", "_v" : [{ "ActionType" : "Animator", "StartTime" : 0.0, "Duration" : 0.93000000715255737, "Priority" : 10, "Args" : ["true", "Attack_02"] }] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "_t" : "System.Collections.Generic.List`1[[ET.ActionConfig, Unity.Model]]", "_v" : [{ "ActionType" : "Animator", "StartTime" : 0.0, "Duration" : 1.2300000190734863, "Priority" : 10, "Args" : ["true", "Attack_03"] }] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "_t" : "System.Collections.Generic.List`1[[ET.ActionConfig, Unity.Model]]", "_v" : [{ "ActionType" : "Animator", "StartTime" : 0.0, "Duration" : 1.4299999475479126, "Priority" : 10, "Args" : ["true", "Attack_11"] }] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "_t" : "System.Collections.Generic.List`1[[ET.ActionConfig, Unity.Model]]", "_v" : [{ "ActionType" : "Animator", "StartTime" : 0.0, "Duration" : 1.4299999475479126, "Priority" : 10, "Args" : ["true", "Attack_12"] }] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "_t" : "System.Collections.Generic.List`1[[ET.ActionConfig, Unity.Model]]", "_v" : [{ "ActionType" : "Animator", "StartTime" : 0.0, "Duration" : 1.0, "Priority" : 10, "Args" : ["true", "Attack_13"] }] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "_t" : "System.Collections.Generic.List`1[[ET.ActionConfig, Unity.Model]]", "_v" : [{ "ActionType" : "Animator", "StartTime" : 0.0, "Duration" : 1.8300000429153442, "Priority" : 10, "Args" : ["true", "Skill_01"] }] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "_t" : "System.Collections.Generic.List`1[[ET.ActionConfig, Unity.Model]]", "_v" : [{ "ActionType" : "Animator", "StartTime" : 0.0, "Duration" : 2.5999999046325684, "Priority" : 10, "Args" : ["true", "Skill_02"] }] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "_t" : "System.Collections.Generic.List`1[[ET.ActionConfig, Unity.Model]]", "_v" : [{ "ActionType" : "Animator", "StartTime" : 0.0, "Duration" : 2.559999942779541, "Priority" : 10, "Args" : ["true", "Skill_11"] }] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "_t" : "System.Collections.Generic.List`1[[ET.ActionConfig, Unity.Model]]", "_v" : [{ "ActionType" : "Animator", "StartTime" : 0.0, "Duration" : 2.559999942779541, "Priority" : 10, "Args" : ["true", "Skill_12"] }] }</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1243,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1227,7 +1257,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -1241,7 +1271,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -1255,7 +1285,7 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -1269,7 +1299,7 @@
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -1283,7 +1313,7 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -1297,7 +1327,7 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -1311,7 +1341,7 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -1325,7 +1355,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -1339,7 +1369,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
